--- a/biology/Botanique/Celastrus/Celastrus.xlsx
+++ b/biology/Botanique/Celastrus/Celastrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrus est un genre de plantes à fleurs de la famille des Celastraceae, regroupant une quarantaine d'espèces actuelles et plus d'une centaine d'espèces fossiles. Ce sont des lianes, et des arbustes, originaires d'Amérique et d'Asie, certaines espèces ayant été naturalisées en Europe, devenant envahissantes.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbustes grimpants à retombants, ou lianes, à feuilles caduques ou persistantes, glabres ou pubescents, avec des lenticelles grises oblongues ou circulaires ; les écailles des bourgeons sont imbriquées. Les feuilles sont alternes, sub-entières ou dentelées, à stipules petites, linéaires, caduques[1].
-Les inflorescences sont axillaires ou terminales, en cymes, en thyrses ou en fleurs solitaires. Les fleurs sont unisexuées, rarement bisexuées, rarement dioïques, verdâtres ou blanc jaunâtre, à verticilles à cinq lobes. Le disque est membraneux ou charnu, annulaire à cupuliforme, entier ou légèrement pentalobé, intrastaminal ; les anthères sont déhiscentes longitudinalement, introrses. L'ovaire se divise en trois locules, séparé ou légèrement adné au disque ; les ovules sont érigés, un ou deux par locule[1].
-Le fruit est une capsule globulaire, jaunâtre, coriace, à déhiscence loculicide, comptant entre une et six graines ellipsoïdes, enfermées dans une arille charnue, rouge à rouge-orange[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbustes grimpants à retombants, ou lianes, à feuilles caduques ou persistantes, glabres ou pubescents, avec des lenticelles grises oblongues ou circulaires ; les écailles des bourgeons sont imbriquées. Les feuilles sont alternes, sub-entières ou dentelées, à stipules petites, linéaires, caduques.
+Les inflorescences sont axillaires ou terminales, en cymes, en thyrses ou en fleurs solitaires. Les fleurs sont unisexuées, rarement bisexuées, rarement dioïques, verdâtres ou blanc jaunâtre, à verticilles à cinq lobes. Le disque est membraneux ou charnu, annulaire à cupuliforme, entier ou légèrement pentalobé, intrastaminal ; les anthères sont déhiscentes longitudinalement, introrses. L'ovaire se divise en trois locules, séparé ou légèrement adné au disque ; les ovules sont érigés, un ou deux par locule.
+Le fruit est une capsule globulaire, jaunâtre, coriace, à déhiscence loculicide, comptant entre une et six graines ellipsoïdes, enfermées dans une arille charnue, rouge à rouge-orange.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre regroupe une quarantaine d'espèces originaires des Amériques (du Nord et du Sud), de Madagascar, d'Extrême-Orient, d'Asie du Sud et du Sud-Est et d'Océanie. Certaines ont été introduites durablement en Europe[2], pour l'ornement, dont Celastrus orbiculatus qui y est réglementée[3]. Deux espèces sont présentes en Amérique du Nord : Celastrus scandens et Celastrus orbiculatus[4], vingt-cinq en Chine, dont seize endémiques[1], une seule au Pakistan : Celastrus paniculatus[5], une seule en Nouvelle-Calédonie : Celastrus subspicatus[6] et une (introduite) en France : Celastrus scandens[7].
-Des fossiles du genre ont été retrouvés en Amérique du Nord, en Asie[8] et en Europe[9], datant du Miocène, de l'Éocène et du Crétacé pour les plus anciens[8], ayant mené à la description de plus d'une centaine d'espèces[10] (voir infra).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre regroupe une quarantaine d'espèces originaires des Amériques (du Nord et du Sud), de Madagascar, d'Extrême-Orient, d'Asie du Sud et du Sud-Est et d'Océanie. Certaines ont été introduites durablement en Europe, pour l'ornement, dont Celastrus orbiculatus qui y est réglementée. Deux espèces sont présentes en Amérique du Nord : Celastrus scandens et Celastrus orbiculatus, vingt-cinq en Chine, dont seize endémiques, une seule au Pakistan : Celastrus paniculatus, une seule en Nouvelle-Calédonie : Celastrus subspicatus et une (introduite) en France : Celastrus scandens.
+Des fossiles du genre ont été retrouvés en Amérique du Nord, en Asie et en Europe, datant du Miocène, de l'Éocène et du Crétacé pour les plus anciens, ayant mené à la description de plus d'une centaine d'espèces (voir infra).
 </t>
         </is>
       </c>
@@ -576,25 +592,101 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été formellement décrit en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature moderne Species Plantarum[11]. Le nom correct Celastrus est un nomen conservandum (nom. cons.)[7],[12]. Celastrus scandens, décrite à la même page, est l'espèce type, désignée ultérieurement comme telle par Hitchcock et Green en 1929[13].
-Celastrus est divisé en deux sous-genres : Celastrus subg. Celastrus et C. subg. Racemocelastrus Ding Hou[1]. C'est le genre type de la tribu des Celastreae, de la sous-famille des Celastroideae, de la famille des Celastraceae et de l'ordre des Celastrales[14].
-Synonymes
-Celastrus L. a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été formellement décrit en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature moderne Species Plantarum. Le nom correct Celastrus est un nomen conservandum (nom. cons.),. Celastrus scandens, décrite à la même page, est l'espèce type, désignée ultérieurement comme telle par Hitchcock et Green en 1929.
+Celastrus est divisé en deux sous-genres : Celastrus subg. Celastrus et C. subg. Racemocelastrus Ding Hou. C'est le genre type de la tribu des Celastreae, de la sous-famille des Celastroideae, de la famille des Celastraceae et de l'ordre des Celastrales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Celastrus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastrus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celastrus L. a pour synonymes :
 Catha G.Don
 Evonimoides Duhamel
 Evonymoides Isnard ex Medik.
 Monocelastrus F.T.Wang &amp; Tang
 Schieckea H.Karst.
-Liste des espèces
-Espèces actuelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celastrus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastrus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Celastrus flagellaris.
 			Celastrus hindsii.
 			Celastrus hypoleucus.
 			Celastrus rosthornianus.
 			Celastrus striangularis.
-Selon Plants of the World online (POWO)                (23 juillet 2022)[2] :
+Selon Plants of the World online (POWO)                (23 juillet 2022) :
 Celastrus aculeatus Merr.
 Celastrus angulatus Maxim.
 Celastrus australis Harv. &amp; F.Muell.
@@ -638,8 +730,47 @@
 Celastrus virens (F.T.Wang &amp; T.Tang) C.Y.Cheng &amp; T.C.Kao
 Celastrus vulcanicola Donn.Sm.
 Celastrus yuloensis X.Y.Mu
-Espèces fossiles
-Selon The International Fossil Plant Names Index (IFPNI)                (23 juillet 2022)[10] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Celastrus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastrus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The International Fossil Plant Names Index (IFPNI)                (23 juillet 2022) :
 Celastrus acherontis
 Celastrus acuminatoides
 Celastrus acuminatus
